--- a/data/trans_orig/P63-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>611707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>598403</v>
+        <v>598719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>623474</v>
+        <v>622875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9388951757320323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9184754786465554</v>
+        <v>0.9189607237229418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9569555735864337</v>
+        <v>0.9560369374392981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>461</v>
@@ -765,19 +765,19 @@
         <v>468854</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>435199</v>
+        <v>435435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>501455</v>
+        <v>500928</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4036378156470593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.37466425006957</v>
+        <v>0.3748676254180052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4317045775241719</v>
+        <v>0.4312512152530668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1096</v>
@@ -786,19 +786,19 @@
         <v>1080561</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1038004</v>
+        <v>1039163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1121961</v>
+        <v>1123256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5959779930956669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5725062251170608</v>
+        <v>0.5731453443561945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.618812171253873</v>
+        <v>0.6195264246312195</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>39811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28044</v>
+        <v>28643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53115</v>
+        <v>52799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06110482426796775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04304442641356632</v>
+        <v>0.04396306256070191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0815245213534445</v>
+        <v>0.08103927627705811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>683</v>
@@ -836,19 +836,19 @@
         <v>692716</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>660115</v>
+        <v>660642</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>726371</v>
+        <v>726135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5963621843529407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5682954224758282</v>
+        <v>0.5687487847469334</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.62533574993043</v>
+        <v>0.6251323745819948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>723</v>
@@ -857,19 +857,19 @@
         <v>732527</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>691127</v>
+        <v>689832</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>775084</v>
+        <v>773925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4040220069043331</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3811878287461269</v>
+        <v>0.3804735753687805</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4274937748829392</v>
+        <v>0.4268546556438056</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>340792</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>318287</v>
+        <v>317933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>363274</v>
+        <v>363403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6023195558358705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5625435750589426</v>
+        <v>0.5619179257900946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6420548458618279</v>
+        <v>0.6422830905546252</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>497</v>
@@ -982,19 +982,19 @@
         <v>507555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>474486</v>
+        <v>475597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>539017</v>
+        <v>540850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5063847806523618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4733921011662398</v>
+        <v>0.4745006045317529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5377747025508168</v>
+        <v>0.5396031810443437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>833</v>
@@ -1003,19 +1003,19 @@
         <v>848346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>810980</v>
+        <v>809932</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>888851</v>
+        <v>887032</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5409996128221664</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5171704191384765</v>
+        <v>0.5165025532704438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5668297781137879</v>
+        <v>0.5656697816167656</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>225007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>202525</v>
+        <v>202396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247512</v>
+        <v>247866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3976804441641296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3579451541381722</v>
+        <v>0.357716909445375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4374564249410575</v>
+        <v>0.4380820742099056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>497</v>
@@ -1053,19 +1053,19 @@
         <v>494755</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463293</v>
+        <v>461460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>527824</v>
+        <v>526713</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4936152193476382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4622252974491831</v>
+        <v>0.4603968189556562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5266078988337598</v>
+        <v>0.5254993954682471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>730</v>
@@ -1074,19 +1074,19 @@
         <v>719763</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>679258</v>
+        <v>681077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>757129</v>
+        <v>758177</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4590003871778336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4331702218862122</v>
+        <v>0.4343302183832344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4828295808615236</v>
+        <v>0.4834974467295562</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>112716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102267</v>
+        <v>101622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122351</v>
+        <v>122084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7715075974348423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6999920295388069</v>
+        <v>0.6955733955219869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8374607655712131</v>
+        <v>0.8356304558804709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1199,19 +1199,19 @@
         <v>123766</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>110129</v>
+        <v>109876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134794</v>
+        <v>136684</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6688110597703903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5951191156266356</v>
+        <v>0.5937504566435915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7284050275666049</v>
+        <v>0.7386147415517577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -1220,19 +1220,19 @@
         <v>236482</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>216475</v>
+        <v>219366</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252107</v>
+        <v>252735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.714118845237971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6537019319260806</v>
+        <v>0.6624338764692792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7613018631009199</v>
+        <v>0.7631983746729045</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>33382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23747</v>
+        <v>24014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43831</v>
+        <v>44476</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2284924025651577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1625392344287866</v>
+        <v>0.1643695441195292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.300007970461193</v>
+        <v>0.3044266044780131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -1270,19 +1270,19 @@
         <v>61288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50260</v>
+        <v>48370</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74925</v>
+        <v>75178</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3311889402296097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.271594972433395</v>
+        <v>0.2613852584482423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4048808843733646</v>
+        <v>0.4062495433564085</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -1291,19 +1291,19 @@
         <v>94670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79045</v>
+        <v>78417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114677</v>
+        <v>111786</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.285881154762029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2386981368990801</v>
+        <v>0.2368016253270954</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3462980680739194</v>
+        <v>0.3375661235307208</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1065214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1037357</v>
+        <v>1034523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1092443</v>
+        <v>1094539</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.781284124810063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7608521710288914</v>
+        <v>0.7587732292611957</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8012547602265442</v>
+        <v>0.8027923231670065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1073</v>
@@ -1416,19 +1416,19 @@
         <v>1100174</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1052515</v>
+        <v>1058828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1145819</v>
+        <v>1149791</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4683717063662047</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.448081777224557</v>
+        <v>0.4507694168580195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4878036895656022</v>
+        <v>0.4894946516597855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2149</v>
@@ -1437,19 +1437,19 @@
         <v>2165389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2109724</v>
+        <v>2103433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2226313</v>
+        <v>2222461</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5832934211907295</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5682990569731374</v>
+        <v>0.5666042874187284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5997046536533747</v>
+        <v>0.5986670622567563</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>298201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>270972</v>
+        <v>268876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326058</v>
+        <v>328892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.218715875189937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1987452397734558</v>
+        <v>0.1972076768329936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2391478289711087</v>
+        <v>0.2412267707388046</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1238</v>
@@ -1487,19 +1487,19 @@
         <v>1248760</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1203115</v>
+        <v>1199143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1296419</v>
+        <v>1290106</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5316282936337953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.512196310434398</v>
+        <v>0.5105053483402145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.551918222775443</v>
+        <v>0.5492305831419805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1544</v>
@@ -1508,19 +1508,19 @@
         <v>1546960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1486036</v>
+        <v>1489888</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1602625</v>
+        <v>1608916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4167065788092705</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4002953463466253</v>
+        <v>0.4013329377432438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4317009430268626</v>
+        <v>0.4333957125812716</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>768525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>756910</v>
+        <v>757432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>776241</v>
+        <v>777457</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9732609960997343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9585525630756728</v>
+        <v>0.959213109238452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9830325060260419</v>
+        <v>0.9845726508630974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>551</v>
@@ -1872,19 +1872,19 @@
         <v>592690</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>557644</v>
+        <v>556018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>627667</v>
+        <v>626061</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4956552896634399</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4663465733736258</v>
+        <v>0.4649869596315184</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5249053860326055</v>
+        <v>0.5235626559498395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1263</v>
@@ -1893,19 +1893,19 @@
         <v>1361215</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1320822</v>
+        <v>1324279</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1403680</v>
+        <v>1404673</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6856089606588572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6652639684867272</v>
+        <v>0.6670054676968331</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7069973356045837</v>
+        <v>0.7074979138034152</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>21114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13398</v>
+        <v>12182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32729</v>
+        <v>32207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02673900390026572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01696749397395819</v>
+        <v>0.01542734913690251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04144743692432731</v>
+        <v>0.04078689076154801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>564</v>
@@ -1943,19 +1943,19 @@
         <v>603081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>568104</v>
+        <v>569710</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>638127</v>
+        <v>639753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5043447103365601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4750946139673945</v>
+        <v>0.4764373440501604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5336534266263742</v>
+        <v>0.5350130403684815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>583</v>
@@ -1964,19 +1964,19 @@
         <v>624195</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>581730</v>
+        <v>580737</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>664588</v>
+        <v>661131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3143910393411428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2930026643954167</v>
+        <v>0.2925020861965847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3347360315132729</v>
+        <v>0.332994532303167</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>823362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>795282</v>
+        <v>797549</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>848048</v>
+        <v>847480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7906660085510122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.763700468139058</v>
+        <v>0.7658776788494264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8143716182394494</v>
+        <v>0.8138263061737191</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>669</v>
@@ -2089,19 +2089,19 @@
         <v>731778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>694870</v>
+        <v>695593</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>763605</v>
+        <v>763909</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6234232755909349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5919799342838976</v>
+        <v>0.5925962096309882</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.650537723644577</v>
+        <v>0.6507965968710995</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1434</v>
@@ -2110,19 +2110,19 @@
         <v>1555141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1509317</v>
+        <v>1514758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1599451</v>
+        <v>1596896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7020446039076601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6813580889962429</v>
+        <v>0.6838144586378234</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7220478276827158</v>
+        <v>0.7208943283191434</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>217991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>193305</v>
+        <v>193873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246071</v>
+        <v>243804</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2093339914489878</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1856283817605511</v>
+        <v>0.186173693826281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2362995318609422</v>
+        <v>0.2341223211505741</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -2160,19 +2160,19 @@
         <v>442028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>410201</v>
+        <v>409897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478936</v>
+        <v>478213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3765767244090651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.349462276355423</v>
+        <v>0.3492034031289006</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4080200657161025</v>
+        <v>0.407403790369012</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>638</v>
@@ -2181,19 +2181,19 @@
         <v>660019</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>615709</v>
+        <v>618264</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>705843</v>
+        <v>700402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2979553960923399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2779521723172843</v>
+        <v>0.2791056716808566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3186419110037571</v>
+        <v>0.3161855413621765</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>134122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122927</v>
+        <v>123823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141952</v>
+        <v>142089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8284289545507159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7592844470231654</v>
+        <v>0.7648179846323376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8767933887235084</v>
+        <v>0.8776412744034821</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -2306,19 +2306,19 @@
         <v>158473</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143655</v>
+        <v>144512</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>171818</v>
+        <v>172083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7115491470488791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6450152039656551</v>
+        <v>0.6488659119689028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7714708380579287</v>
+        <v>0.7726579442590554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>263</v>
@@ -2327,19 +2327,19 @@
         <v>292594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>274075</v>
+        <v>275850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>308609</v>
+        <v>308542</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7607483838831555</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7125979415893466</v>
+        <v>0.7172115787024238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8023872783624674</v>
+        <v>0.802212987869148</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>27777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19947</v>
+        <v>19810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38972</v>
+        <v>38076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1715710454492842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1232066112764916</v>
+        <v>0.1223587255965179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2407155529768344</v>
+        <v>0.2351820153676622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -2377,19 +2377,19 @@
         <v>64242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50897</v>
+        <v>50632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79060</v>
+        <v>78203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2884508529511209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2285291619420712</v>
+        <v>0.2273420557409444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3549847960343443</v>
+        <v>0.351134088031097</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>88</v>
@@ -2398,19 +2398,19 @@
         <v>92020</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76005</v>
+        <v>76072</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110539</v>
+        <v>108764</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2392516161168445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1976127216375325</v>
+        <v>0.197787012130852</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2874020584106533</v>
+        <v>0.2827884212975761</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1726009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1695816</v>
+        <v>1694399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1755833</v>
+        <v>1753187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8660830047358836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8509324025143661</v>
+        <v>0.850221706215583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8810483693611515</v>
+        <v>0.8797204289029762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1362</v>
@@ -2523,19 +2523,19 @@
         <v>1482941</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1426724</v>
+        <v>1432597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1535415</v>
+        <v>1535822</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5720577911553827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5503714658740304</v>
+        <v>0.5526368857121953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5922998936689312</v>
+        <v>0.5924570020888205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2960</v>
@@ -2544,19 +2544,19 @@
         <v>3208950</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3151823</v>
+        <v>3145568</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3277916</v>
+        <v>3270167</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6998520612163112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6873929586594264</v>
+        <v>0.6860288177301401</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7148930485509011</v>
+        <v>0.7132030485030959</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>266882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237058</v>
+        <v>239704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297075</v>
+        <v>298492</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1339169952641164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1189516306388485</v>
+        <v>0.1202795710970236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1490675974856339</v>
+        <v>0.1497782937844169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1044</v>
@@ -2594,19 +2594,19 @@
         <v>1109352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1056878</v>
+        <v>1056471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1165569</v>
+        <v>1159696</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4279422088446173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4077001063310688</v>
+        <v>0.4075429979111788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4496285341259696</v>
+        <v>0.4473631142878046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1309</v>
@@ -2615,19 +2615,19 @@
         <v>1376234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1307268</v>
+        <v>1315017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1433361</v>
+        <v>1439616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3001479387836889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2851069514490989</v>
+        <v>0.2867969514969041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3126070413405736</v>
+        <v>0.3139711822698599</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>598103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>588965</v>
+        <v>589719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>603854</v>
+        <v>603522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.978524751892222</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9635758098087783</v>
+        <v>0.964808579095888</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9879346104513107</v>
+        <v>0.9873913252943938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>409</v>
@@ -2979,19 +2979,19 @@
         <v>447913</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>418157</v>
+        <v>417606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>483254</v>
+        <v>480421</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4891154745645976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4566217613352881</v>
+        <v>0.4560201925080977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5277065876561114</v>
+        <v>0.5246135949057381</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1024</v>
@@ -3000,19 +3000,19 @@
         <v>1046016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1007338</v>
+        <v>1008616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1082364</v>
+        <v>1081975</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6850177325735218</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6596885265717624</v>
+        <v>0.6605253459385211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7088213167744229</v>
+        <v>0.7085664200887359</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>13126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7375</v>
+        <v>7707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22264</v>
+        <v>21510</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02147524810777804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01206538954868909</v>
+        <v>0.01260867470560621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03642419019122162</v>
+        <v>0.035191420904112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>405</v>
@@ -3050,19 +3050,19 @@
         <v>467849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>432508</v>
+        <v>435341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>497605</v>
+        <v>498156</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5108845254354023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4722934123438886</v>
+        <v>0.4753864050942619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5433782386647118</v>
+        <v>0.5439798074919023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>418</v>
@@ -3071,19 +3071,19 @@
         <v>480975</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>444627</v>
+        <v>445016</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>519653</v>
+        <v>518375</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3149822674264782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2911786832255767</v>
+        <v>0.291433579911264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3403114734282376</v>
+        <v>0.3394746540614789</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>920984</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>892665</v>
+        <v>891098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>947763</v>
+        <v>946046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8023428413692203</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7776715187803503</v>
+        <v>0.77630667995545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.825671678782701</v>
+        <v>0.824175840315025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>740</v>
@@ -3196,19 +3196,19 @@
         <v>780128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>747086</v>
+        <v>743181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>815992</v>
+        <v>817140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5864112013547759</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5615737221860807</v>
+        <v>0.5586382666395486</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.613369743729745</v>
+        <v>0.6142326021141553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1611</v>
@@ -3217,19 +3217,19 @@
         <v>1701113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1652035</v>
+        <v>1659259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1748538</v>
+        <v>1745842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6864273765053552</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6666239445900267</v>
+        <v>0.669538657706102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7055644323102945</v>
+        <v>0.704476636532433</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>226885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>200106</v>
+        <v>201823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>255204</v>
+        <v>256771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1976571586307797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1743283212172989</v>
+        <v>0.175824159684975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2223284812196495</v>
+        <v>0.2236933200445499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>525</v>
@@ -3267,19 +3267,19 @@
         <v>550215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514351</v>
+        <v>513203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>583257</v>
+        <v>587162</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4135887986452241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3866302562702548</v>
+        <v>0.3857673978858446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4384262778139191</v>
+        <v>0.4413617333604514</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>739</v>
@@ -3288,19 +3288,19 @@
         <v>777099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>729674</v>
+        <v>732370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>826177</v>
+        <v>818953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3135726234946448</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2944355676897055</v>
+        <v>0.2955233634675671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3333760554099732</v>
+        <v>0.330461342293898</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>148015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134878</v>
+        <v>134416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159456</v>
+        <v>158346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7660240461945688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6980372302491624</v>
+        <v>0.6956463186697657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.82523708464071</v>
+        <v>0.8194891971076325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -3413,19 +3413,19 @@
         <v>180227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166830</v>
+        <v>165740</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193535</v>
+        <v>192267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7488038836920238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6931417545931675</v>
+        <v>0.68861238244666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8040941121091033</v>
+        <v>0.7988258924417608</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>302</v>
@@ -3434,19 +3434,19 @@
         <v>328242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309107</v>
+        <v>307892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345285</v>
+        <v>343967</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7564721827499435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7123721265341948</v>
+        <v>0.7095726409011385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7957477683069819</v>
+        <v>0.7927121518143242</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>45210</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33769</v>
+        <v>34879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58347</v>
+        <v>58809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2339759538054312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1747629153592901</v>
+        <v>0.1805108028923677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3019627697508375</v>
+        <v>0.3043536813302352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -3484,19 +3484,19 @@
         <v>60460</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47152</v>
+        <v>48420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73857</v>
+        <v>74947</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2511961163079762</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1959058878908966</v>
+        <v>0.2011741075582391</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3068582454068327</v>
+        <v>0.31138761755334</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>102</v>
@@ -3505,19 +3505,19 @@
         <v>105670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88627</v>
+        <v>89945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124805</v>
+        <v>126020</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2435278172500565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2042522316930181</v>
+        <v>0.2072878481856758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2876278734658052</v>
+        <v>0.2904273590988611</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1667102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1634610</v>
+        <v>1636699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1699554</v>
+        <v>1699240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8539069090670851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8372638817729416</v>
+        <v>0.8383341567555963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.870528853176085</v>
+        <v>0.870368204588196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1317</v>
@@ -3630,19 +3630,19 @@
         <v>1408269</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1355928</v>
+        <v>1360268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1459777</v>
+        <v>1461594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5662993794602786</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5452518051585432</v>
+        <v>0.5469972013452458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5870122091771226</v>
+        <v>0.5877427796102922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2937</v>
@@ -3651,19 +3651,19 @@
         <v>3075371</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3013323</v>
+        <v>3015877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3137516</v>
+        <v>3137008</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6927891838768631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6788116820132994</v>
+        <v>0.679386884309258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7067885857627656</v>
+        <v>0.7066742979957304</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>285221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252769</v>
+        <v>253083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317713</v>
+        <v>315624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1460930909329149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1294711468239151</v>
+        <v>0.1296317954118041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1627361182270584</v>
+        <v>0.1616658432444037</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>989</v>
@@ -3701,19 +3701,19 @@
         <v>1078523</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1027015</v>
+        <v>1025198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1130864</v>
+        <v>1126524</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4337006205397214</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4129877908228774</v>
+        <v>0.4122572203897078</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4547481948414567</v>
+        <v>0.4530027986547542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1259</v>
@@ -3722,19 +3722,19 @@
         <v>1363744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1301599</v>
+        <v>1302107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1425792</v>
+        <v>1423238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3072108161231369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.293211414237234</v>
+        <v>0.2933257020042695</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3211883179867003</v>
+        <v>0.320613115690742</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>408646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>400778</v>
+        <v>401016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>411807</v>
+        <v>412170</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9856515844228114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9666725364212331</v>
+        <v>0.9672477513377479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9932744234051833</v>
+        <v>0.9941512068100578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>735</v>
@@ -4086,19 +4086,19 @@
         <v>399004</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377241</v>
+        <v>379156</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>418787</v>
+        <v>421003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.548229524023603</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5183273399453122</v>
+        <v>0.5209587685780636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5754113421027121</v>
+        <v>0.5784559349322105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1277</v>
@@ -4107,19 +4107,19 @@
         <v>807650</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>780001</v>
+        <v>783136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>832789</v>
+        <v>830040</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7069768152985519</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6827741389698188</v>
+        <v>0.685517993701887</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7289816245178461</v>
+        <v>0.7265757199626915</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>5949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2788</v>
+        <v>2425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13817</v>
+        <v>13579</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01434841557718861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006725576594816661</v>
+        <v>0.005848793189942289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.033327463578767</v>
+        <v>0.03275224866225297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>564</v>
@@ -4157,19 +4157,19 @@
         <v>328801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309018</v>
+        <v>306802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350564</v>
+        <v>348649</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4517704759763969</v>
+        <v>0.451770475976397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4245886578972878</v>
+        <v>0.4215440650677897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4816726600546881</v>
+        <v>0.4790412314219366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>571</v>
@@ -4178,19 +4178,19 @@
         <v>334750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309611</v>
+        <v>312360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>362399</v>
+        <v>359264</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2930231847014481</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2710183754821539</v>
+        <v>0.2734242800373086</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3172258610301814</v>
+        <v>0.314482006298113</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>723254</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>682221</v>
+        <v>683170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>758959</v>
+        <v>757754</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7832721131428541</v>
+        <v>0.7832721131428539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7388336996208376</v>
+        <v>0.7398620655888569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8219402513667742</v>
+        <v>0.8206348959271778</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1086</v>
@@ -4303,19 +4303,19 @@
         <v>727351</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>692529</v>
+        <v>692461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>759515</v>
+        <v>759397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.609227444309193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5800603587773989</v>
+        <v>0.5800032821916109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6361674204247196</v>
+        <v>0.6360689091310983</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1878</v>
@@ -4324,19 +4324,19 @@
         <v>1450606</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1400997</v>
+        <v>1399254</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1502010</v>
+        <v>1499688</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6851312362781876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6617008475077557</v>
+        <v>0.6608774753799304</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7094097611832295</v>
+        <v>0.7083129736708726</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>200121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164416</v>
+        <v>165621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>241154</v>
+        <v>240205</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.216727886857146</v>
+        <v>0.2167278868571459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1780597486332258</v>
+        <v>0.1793651040728224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2611663003791623</v>
+        <v>0.260137934411143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>546</v>
@@ -4374,19 +4374,19 @@
         <v>466540</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>434376</v>
+        <v>434494</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501362</v>
+        <v>501430</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3907725556908072</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3638325795752804</v>
+        <v>0.3639310908689019</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4199396412226013</v>
+        <v>0.4199967178083903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>634</v>
@@ -4395,19 +4395,19 @@
         <v>666661</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>615257</v>
+        <v>617579</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>716270</v>
+        <v>718013</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3148687637218124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2905902388167704</v>
+        <v>0.2916870263291272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3382991524922442</v>
+        <v>0.3391225246200695</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>183281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164855</v>
+        <v>168566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194924</v>
+        <v>195680</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8547009687699885</v>
+        <v>0.8547009687699887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7687735890982084</v>
+        <v>0.7860792115438311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9089949380176621</v>
+        <v>0.9125209705554368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>301</v>
@@ -4520,19 +4520,19 @@
         <v>198744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182815</v>
+        <v>185714</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209793</v>
+        <v>211261</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8080030036670638</v>
+        <v>0.8080030036670637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7432404061642883</v>
+        <v>0.75502554796859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8529197954119206</v>
+        <v>0.8588884119657213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>525</v>
@@ -4541,19 +4541,19 @@
         <v>382026</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>362090</v>
+        <v>360101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>399398</v>
+        <v>399257</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8297529075778856</v>
+        <v>0.8297529075778858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7864537188567795</v>
+        <v>0.7821319796392107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8674855599272615</v>
+        <v>0.8671783824286593</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>31158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19515</v>
+        <v>18759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49584</v>
+        <v>45873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1452990312300114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0910050619823379</v>
+        <v>0.08747902944456326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2312264109017914</v>
+        <v>0.2139207884561689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -4591,19 +4591,19 @@
         <v>47226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36177</v>
+        <v>34709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63155</v>
+        <v>60256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1919969963329364</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1470802045880793</v>
+        <v>0.1411115880342788</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2567595938357116</v>
+        <v>0.24497445203141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -4612,19 +4612,19 @@
         <v>78383</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61011</v>
+        <v>61152</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98319</v>
+        <v>100308</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1702470924221144</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1325144400727386</v>
+        <v>0.1328216175713407</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2135462811432203</v>
+        <v>0.2178680203607893</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1315181</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1269027</v>
+        <v>1267645</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1355271</v>
+        <v>1356634</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8471873574683849</v>
+        <v>0.847187357468385</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8174566256605825</v>
+        <v>0.816566599915164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8730113351603519</v>
+        <v>0.8738894916519191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2122</v>
@@ -4737,19 +4737,19 @@
         <v>1325100</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1283552</v>
+        <v>1284424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1365591</v>
+        <v>1366165</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6113026043675637</v>
+        <v>0.6113026043675636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5921351358682585</v>
+        <v>0.5925373147773552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6299819411784821</v>
+        <v>0.6302467337340402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3680</v>
@@ -4758,19 +4758,19 @@
         <v>2640282</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2582933</v>
+        <v>2582288</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2699026</v>
+        <v>2696150</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7097386638540347</v>
+        <v>0.7097386638540346</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6943227675996216</v>
+        <v>0.6941491668902927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7255298547894889</v>
+        <v>0.7247567469261419</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>237228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197138</v>
+        <v>195775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>283382</v>
+        <v>284764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1528126425316151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1269886648396481</v>
+        <v>0.1261105083480812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1825433743394174</v>
+        <v>0.183433400084836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1156</v>
@@ -4808,19 +4808,19 @@
         <v>842567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>802076</v>
+        <v>801502</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>884115</v>
+        <v>883243</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3886973956324364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.370018058821518</v>
+        <v>0.3697532662659598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4078648641317416</v>
+        <v>0.4074626852226449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1268</v>
@@ -4829,19 +4829,19 @@
         <v>1079794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1021050</v>
+        <v>1023926</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1137143</v>
+        <v>1137788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2902613361459654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2744701452105111</v>
+        <v>0.2752432530738581</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3056772324003784</v>
+        <v>0.3058508331097073</v>
       </c>
     </row>
     <row r="15">
